--- a/docs/画面項目定義書/image_management/mo_image_detail_edit.xlsx
+++ b/docs/画面項目定義書/image_management/mo_image_detail_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\image_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9770B8-14CA-4824-94BB-01A0F0BEBE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE7E78D-F247-4A91-8B89-0D9D6B591049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -681,13 +681,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1192,10 +1192,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1205,10 +1205,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>37</v>
       </c>
       <c r="E11" t="s">
